--- a/rhla_analysis/rhla1_3_exp_result/k4.xlsx
+++ b/rhla_analysis/rhla1_3_exp_result/k4.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.009938244333016323</v>
+        <v>0.009938244333016362</v>
       </c>
       <c r="B2" t="n">
         <v>0.2838490270606026</v>
@@ -466,12 +466,12 @@
         <v>0.09420289855072464</v>
       </c>
       <c r="D2" t="n">
-        <v>28.56128482549116</v>
+        <v>28.56128482549105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01383405899592662</v>
+        <v>0.0138340589959266</v>
       </c>
       <c r="B3" t="n">
         <v>0.2992931297752922</v>
@@ -480,12 +480,12 @@
         <v>0.09846547314578005</v>
       </c>
       <c r="D3" t="n">
-        <v>21.63451304229784</v>
+        <v>21.63451304229786</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01950396053063126</v>
+        <v>0.01950396053063145</v>
       </c>
       <c r="B4" t="n">
         <v>0.2582932921316921</v>
@@ -494,12 +494,12 @@
         <v>0.09676044330775789</v>
       </c>
       <c r="D4" t="n">
-        <v>13.24312012045136</v>
+        <v>13.24312012045124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01381717072523679</v>
+        <v>0.0138171707252369</v>
       </c>
       <c r="B5" t="n">
         <v>0.2814484810949924</v>
@@ -508,12 +508,12 @@
         <v>0.09676044330775789</v>
       </c>
       <c r="D5" t="n">
-        <v>20.36947264326207</v>
+        <v>20.36947264326191</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01354817690458661</v>
+        <v>0.01354817690458683</v>
       </c>
       <c r="B6" t="n">
         <v>0.313708952230015</v>
@@ -522,12 +522,12 @@
         <v>0.09164535379369139</v>
       </c>
       <c r="D6" t="n">
-        <v>23.15506761089102</v>
+        <v>23.15506761089064</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02951381068951507</v>
+        <v>0.02951381068951529</v>
       </c>
       <c r="B7" t="n">
         <v>0.3051825307782653</v>
@@ -536,12 +536,12 @@
         <v>0.09335038363171355</v>
       </c>
       <c r="D7" t="n">
-        <v>10.3403296168286</v>
+        <v>10.34032961682853</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01038165616983582</v>
+        <v>0.0103816561698359</v>
       </c>
       <c r="B8" t="n">
         <v>0.2381305244521607</v>
@@ -550,12 +550,12 @@
         <v>0.1065643648763853</v>
       </c>
       <c r="D8" t="n">
-        <v>22.93762387778312</v>
+        <v>22.93762387778294</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.007509080434496065</v>
+        <v>0.007509080434496043</v>
       </c>
       <c r="B9" t="n">
         <v>0.2965853166447975</v>
@@ -564,7 +564,7 @@
         <v>0.09548167092924126</v>
       </c>
       <c r="D9" t="n">
-        <v>39.49688903082065</v>
+        <v>39.49688903082076</v>
       </c>
     </row>
     <row r="10">
@@ -578,12 +578,12 @@
         <v>0.09505541346973571</v>
       </c>
       <c r="D10" t="n">
-        <v>18.81648359362816</v>
+        <v>18.81648359362817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01063402542759081</v>
+        <v>0.01063402542759082</v>
       </c>
       <c r="B11" t="n">
         <v>0.26934912608211</v>
@@ -592,7 +592,7 @@
         <v>0.1223358908780904</v>
       </c>
       <c r="D11" t="n">
-        <v>25.32899022257956</v>
+        <v>25.32899022257953</v>
       </c>
     </row>
   </sheetData>
